--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etolew-lab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8355"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="253">
   <si>
     <t>Two Sum</t>
   </si>
@@ -366,461 +361,486 @@
     <t>Best Time to Buy and Sell Stock III</t>
   </si>
   <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>矩阵</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BFS|前序遍历</t>
+  </si>
+  <si>
+    <t>队列</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal </t>
+  </si>
+  <si>
+    <t>每一层顺序分别对待</t>
+  </si>
+  <si>
+    <t>KMP算法</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>堆栈</t>
+  </si>
+  <si>
+    <t>记录重要位置</t>
+  </si>
+  <si>
+    <t>词法分析</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>简化为子问题</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>快慢指针&amp;链表倒序</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>快慢指针</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>首尾指针</t>
+  </si>
+  <si>
+    <t>模拟加法运算</t>
+  </si>
+  <si>
+    <t>模拟乘法运算</t>
+  </si>
+  <si>
+    <t>STL函数</t>
+  </si>
+  <si>
+    <t>STL经典算法</t>
+  </si>
+  <si>
+    <t>中序遍历</t>
+  </si>
+  <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>前序中序遍历</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>前序遍历</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>合并排序</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>后序中序遍历</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>后续遍历</t>
+  </si>
+  <si>
+    <t>回溯</t>
+  </si>
+  <si>
+    <t>Max Points on a Line</t>
+  </si>
+  <si>
+    <t>循环遍历</t>
+  </si>
+  <si>
+    <t>排除相同的点</t>
+  </si>
+  <si>
+    <t>Insertion Sort List</t>
+  </si>
+  <si>
+    <t>插入排序</t>
+  </si>
+  <si>
+    <t>矢量旋转与平移</t>
+  </si>
+  <si>
+    <t>类BFS</t>
+  </si>
+  <si>
+    <t>类二分查找</t>
+  </si>
+  <si>
+    <t>类二进制</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>类合并排序</t>
+  </si>
+  <si>
+    <t>类外排序</t>
+  </si>
+  <si>
+    <t>类快速排序</t>
+  </si>
+  <si>
+    <t>类杨氏矩阵</t>
+  </si>
+  <si>
+    <t>背包问题</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree </t>
+  </si>
+  <si>
+    <t>Same Tree </t>
+  </si>
+  <si>
+    <t>反中序遍历</t>
+  </si>
+  <si>
+    <t>Convert Sorted List to Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n) trick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS+标记去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合数技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归公式！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后有空格的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右字树的最大高度差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归比较左右两节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存左右括号的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规方法超时，利用head指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需返回总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按行遍历，并判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右两半至少有一半有序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上题基础上移动左指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">只用乘除 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环，退化成2Sum，注意重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归结束条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以只用列数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善于利用标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理利用栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细心即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似Unique Paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右两次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录最远达到的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历交换顺序（其实不止On?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归，根节点位置确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两链表合并的升级版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS也能过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪枝的方法！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Binary Tree Maximum Path Sum</t>
-  </si>
-  <si>
-    <t>Word Ladder II</t>
-  </si>
-  <si>
-    <t>Word Ladder</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sum Root to Leaf Numbers</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>哈希表</t>
-  </si>
-  <si>
-    <t>Surrounded Regions</t>
-  </si>
-  <si>
-    <t>矩阵</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>BFS|前序遍历</t>
-  </si>
-  <si>
-    <t>队列</t>
-  </si>
-  <si>
-    <t>Binary Tree Zigzag Level Order Traversal </t>
-  </si>
-  <si>
-    <t>每一层顺序分别对待</t>
-  </si>
-  <si>
-    <t>KMP算法</t>
-  </si>
-  <si>
-    <t>Copy List with Random Pointer</t>
-  </si>
-  <si>
-    <t>Evaluate Reverse Polish Notation</t>
-  </si>
-  <si>
-    <t>堆栈</t>
-  </si>
-  <si>
-    <t>记录重要位置</t>
-  </si>
-  <si>
-    <t>词法分析</t>
-  </si>
-  <si>
-    <t>数组</t>
-  </si>
-  <si>
-    <t>简化为子问题</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>链表</t>
-  </si>
-  <si>
-    <t>Reorder List</t>
-  </si>
-  <si>
-    <t>快慢指针&amp;链表倒序</t>
-  </si>
-  <si>
-    <t>Linked List Cycle</t>
-  </si>
-  <si>
-    <t>快慢指针</t>
-  </si>
-  <si>
-    <t>Linked List Cycle II</t>
-  </si>
-  <si>
-    <t>Candy</t>
-  </si>
-  <si>
-    <t>首尾指针</t>
-  </si>
-  <si>
-    <t>模拟加法运算</t>
-  </si>
-  <si>
-    <t>模拟乘法运算</t>
-  </si>
-  <si>
-    <t>STL函数</t>
-  </si>
-  <si>
-    <t>STL经典算法</t>
-  </si>
-  <si>
-    <t>中序遍历</t>
-  </si>
-  <si>
-    <t>二叉树</t>
-  </si>
-  <si>
-    <t>二分查找</t>
-  </si>
-  <si>
-    <t>Single Number</t>
-  </si>
-  <si>
-    <t>位运算</t>
-  </si>
-  <si>
-    <t>Single Number II</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
-  </si>
-  <si>
-    <t>前序中序遍历</t>
-  </si>
-  <si>
-    <t>Binary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>前序遍历</t>
-  </si>
-  <si>
-    <t>动态规划</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Palindrome Partitioning</t>
-  </si>
-  <si>
-    <t>Palindrome Partitioning II</t>
-  </si>
-  <si>
-    <t>Sort List</t>
-  </si>
-  <si>
-    <t>合并排序</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
-  </si>
-  <si>
-    <t>后序中序遍历</t>
-  </si>
-  <si>
-    <t>Binary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>后续遍历</t>
-  </si>
-  <si>
-    <t>回溯</t>
-  </si>
-  <si>
-    <t>Max Points on a Line</t>
-  </si>
-  <si>
-    <t>循环遍历</t>
-  </si>
-  <si>
-    <t>排除相同的点</t>
-  </si>
-  <si>
-    <t>Insertion Sort List</t>
-  </si>
-  <si>
-    <t>插入排序</t>
-  </si>
-  <si>
-    <t>矢量旋转与平移</t>
-  </si>
-  <si>
-    <t>类BFS</t>
-  </si>
-  <si>
-    <t>类二分查找</t>
-  </si>
-  <si>
-    <t>类二进制</t>
-  </si>
-  <si>
-    <t>Gas Station</t>
-  </si>
-  <si>
-    <t>类合并排序</t>
-  </si>
-  <si>
-    <t>类外排序</t>
-  </si>
-  <si>
-    <t>类快速排序</t>
-  </si>
-  <si>
-    <t>类杨氏矩阵</t>
-  </si>
-  <si>
-    <t>背包问题</t>
-  </si>
-  <si>
-    <t>递归</t>
-  </si>
-  <si>
-    <t>Maximum Depth of Binary Tree </t>
-  </si>
-  <si>
-    <t>Same Tree </t>
-  </si>
-  <si>
-    <t>反中序遍历</t>
-  </si>
-  <si>
-    <t>Convert Sorted List to Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Populating Next Right Pointers in Each Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Words in a String</t>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dummy head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(n) trick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS+标记去重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记忆！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合数技巧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归公式！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后有空格的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右字树的最大高度差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归比较左右两节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存左右括号的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规方法超时，利用head指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只需返回总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按行遍历，并判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右两半至少有一半有序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在上题基础上移动左指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">只用乘除 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环，退化成2Sum，注意重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归结束条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以只用列数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valid Palindrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>善于利用标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合理利用栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细心即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似Unique Paths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右两次遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录最远达到的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历交换顺序（其实不止On?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Container With Most Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归，根节点位置确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两链表合并的升级版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,7 +1029,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1186,7 +1206,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1196,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A52" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1210,7 +1230,7 @@
     <col min="6" max="6" width="29.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1221,64 +1241,64 @@
         <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1287,334 +1307,401 @@
         <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41738</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="G6" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>41750</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>41750</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>41738</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>41739</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>41739</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>41739</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>41739</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>41739</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>41746</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>41750</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>41750</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>41751</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>41751</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>41751</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>41751</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>41753</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>41753</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>41753</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -1627,342 +1714,358 @@
         <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>41758</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>41758</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="4">
-        <v>41758</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="B46" s="4">
+        <v>41761</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -1970,13 +2073,13 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -1986,650 +2089,632 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4">
-        <v>41758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4">
-        <v>41751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="B52" s="4">
-        <v>41746</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" s="4">
-        <v>41739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
-        <v>41739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="4">
-        <v>41739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>1</v>
-      </c>
-      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>41744</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4">
+        <v>41761</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>41758</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4">
+        <v>41737</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
         <v>41738</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4">
-        <v>41753</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
-        <v>1</v>
-      </c>
-      <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>1</v>
       </c>
       <c r="B64" s="4">
-        <v>41755</v>
+        <v>41738</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>1</v>
       </c>
       <c r="B65" s="4">
-        <v>41755</v>
+        <v>41738</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>1</v>
       </c>
       <c r="B66" s="4">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <v>41744</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" s="4">
+      <c r="E67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4">
+        <v>41745</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4">
+        <v>41746</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4">
+        <v>41746</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>41746</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4">
         <v>41747</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>41747</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
-        <v>1</v>
-      </c>
-      <c r="B68" s="4">
-        <v>41747</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4">
-        <v>41737</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" s="4">
-        <v>41752</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="4">
-        <v>41738</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" s="4">
-        <v>41753</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
-        <v>1</v>
-      </c>
-      <c r="B73" s="4">
-        <v>41738</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F73" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>1</v>
       </c>
       <c r="B74" s="4">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>1</v>
       </c>
       <c r="B75" s="4">
-        <v>41746</v>
+        <v>41751</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>1</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="4">
+        <v>41751</v>
+      </c>
       <c r="C76" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>41758</v>
+        <v>41751</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>1</v>
       </c>
       <c r="B78" s="4">
-        <v>41751</v>
+        <v>41761</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>1</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>1</v>
       </c>
-      <c r="B80" s="4">
-        <v>41753</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>1</v>
       </c>
-      <c r="B81" s="4">
-        <v>41753</v>
-      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>1</v>
       </c>
-      <c r="B82" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
@@ -2637,53 +2722,45 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>1</v>
       </c>
-      <c r="B84" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>1</v>
       </c>
-      <c r="B85" s="4">
-        <v>41752</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -2691,71 +2768,63 @@
       <c r="A86" s="2">
         <v>1</v>
       </c>
-      <c r="B86" s="4">
-        <v>41755</v>
-      </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="3" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="3" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="3" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>1</v>
-      </c>
-      <c r="B89" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -2764,34 +2833,34 @@
         <v>1</v>
       </c>
       <c r="B90" s="4">
-        <v>41758</v>
+        <v>41738</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>1</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="4">
+        <v>41739</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -2799,15 +2868,17 @@
       <c r="A92" s="2">
         <v>1</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="4">
+        <v>41739</v>
+      </c>
       <c r="C92" s="3" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2"/>
     </row>
@@ -2816,16 +2887,16 @@
         <v>1</v>
       </c>
       <c r="B93" s="4">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2"/>
     </row>
@@ -2833,36 +2904,40 @@
       <c r="A94" s="2">
         <v>1</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="4">
+        <v>41745</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F94" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>1</v>
       </c>
       <c r="B95" s="4">
-        <v>41744</v>
+        <v>41750</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2870,630 +2945,616 @@
         <v>1</v>
       </c>
       <c r="B96" s="4">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>1</v>
+      </c>
+      <c r="B97" s="4">
+        <v>41751</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
-        <v>1</v>
-      </c>
-      <c r="B97" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>1</v>
       </c>
       <c r="B98" s="4">
-        <v>41750</v>
+        <v>41752</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>1</v>
       </c>
       <c r="B99" s="4">
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>1</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="4">
+        <v>41761</v>
+      </c>
       <c r="C100" s="3" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>1</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>1</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>1</v>
       </c>
-      <c r="B103" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
-        <v>1</v>
-      </c>
-      <c r="B104" s="4">
-        <v>41744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="3" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>1</v>
-      </c>
-      <c r="B105" s="4">
-        <v>41744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4">
-        <v>41744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="B108" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="3" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="B109" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2"/>
-      <c r="G109" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>1</v>
-      </c>
-      <c r="B110" s="4">
-        <v>41737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>1</v>
-      </c>
-      <c r="B112" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>1</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="4">
+        <v>41739</v>
+      </c>
       <c r="C114" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>1</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="4">
+        <v>41751</v>
+      </c>
       <c r="C115" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>1</v>
       </c>
-      <c r="B118" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>1</v>
-      </c>
-      <c r="B119" s="4">
-        <v>41747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B119" s="2"/>
       <c r="C119" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E119" s="2" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>1</v>
+      </c>
+      <c r="B120" s="4">
+        <v>41755</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>1</v>
+      </c>
+      <c r="B122" s="4">
+        <v>41744</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>1</v>
+      </c>
+      <c r="B123" s="4">
+        <v>41750</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>1</v>
+      </c>
+      <c r="B124" s="4">
+        <v>41750</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A120" s="2">
-        <v>1</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A121" s="2">
-        <v>1</v>
-      </c>
-      <c r="B121" s="4">
+    </row>
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>1</v>
+      </c>
+      <c r="B125" s="4">
         <v>41755</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
-        <v>1</v>
-      </c>
-      <c r="B122" s="4">
-        <v>41739</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A123" s="2">
-        <v>1</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A124" s="2">
-        <v>1</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="2">
-        <v>1</v>
-      </c>
-      <c r="B125" s="4">
-        <v>41739</v>
-      </c>
       <c r="C125" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>1</v>
       </c>
       <c r="B126" s="4">
-        <v>41750</v>
+        <v>41761</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>1</v>
       </c>
       <c r="B127" s="4">
-        <v>41750</v>
+        <v>41761</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>1</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="4">
+        <v>41761</v>
+      </c>
       <c r="C128" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3502,16 +3563,16 @@
         <v>1</v>
       </c>
       <c r="B131" s="4">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3519,69 +3580,75 @@
       <c r="A132" s="2">
         <v>1</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="4">
+        <v>41750</v>
+      </c>
       <c r="C132" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>1</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="4">
+        <v>41750</v>
+      </c>
       <c r="C133" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>1</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="4">
+        <v>41737</v>
+      </c>
       <c r="C134" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>1</v>
       </c>
       <c r="B135" s="4">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F135" s="2"/>
     </row>
@@ -3590,40 +3657,34 @@
         <v>1</v>
       </c>
       <c r="B136" s="4">
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>1</v>
       </c>
-      <c r="B137" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
@@ -3631,13 +3692,13 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -3645,53 +3706,53 @@
       <c r="A139" s="2">
         <v>1</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" s="4">
+        <v>41758</v>
+      </c>
       <c r="C139" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F139" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>1</v>
       </c>
-      <c r="B140" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B140" s="2"/>
       <c r="C140" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>1</v>
       </c>
       <c r="B141" s="4">
-        <v>41750</v>
+        <v>41738</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3699,201 +3760,188 @@
       <c r="A142" s="2">
         <v>1</v>
       </c>
-      <c r="B142" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>232</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>1</v>
       </c>
-      <c r="B143" s="2"/>
+      <c r="B143" s="4">
+        <v>41755</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F143" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>1</v>
       </c>
       <c r="B144" s="4">
-        <v>41745</v>
+        <v>41755</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>41745</v>
+        <v>41738</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>1</v>
       </c>
-      <c r="B146" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>1</v>
       </c>
       <c r="B147" s="4">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
-        <v>1</v>
-      </c>
-      <c r="B148" s="4">
-        <v>41751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
-        <v>1</v>
-      </c>
-      <c r="B149" s="4">
-        <v>41751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
-        <v>1</v>
-      </c>
-      <c r="B150" s="4">
-        <v>41751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>41751</v>
+        <v>41747</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>213</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A2:G168">
-    <sortCondition ref="A106"/>
+    <sortCondition ref="D109"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F151 G103 G12 G88">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="268">
   <si>
     <t>Two Sum</t>
   </si>
@@ -595,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Populating Next Right Pointers in Each Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,6 +879,34 @@
   </si>
   <si>
     <t>直接回溯会TLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r,r+l,r+r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string,int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细心即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似树的层序遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,35 +983,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1005,6 +1001,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF7C80"/>
@@ -1029,7 +1091,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1286,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,55 +1385,49 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>41737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>41737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>41737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1380,20 +1436,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>41738</v>
+        <v>41764</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>241</v>
+        <v>266</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1404,31 +1459,34 @@
         <v>41738</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>41738</v>
+        <v>41750</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1437,247 +1495,237 @@
         <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>41738</v>
+        <v>41750</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>41738</v>
+        <v>41750</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="4">
-        <v>41738</v>
+        <v>41761</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>41739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <v>41739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4">
-        <v>41739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -1687,52 +1735,56 @@
         <v>41739</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>41739</v>
+        <v>41751</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>41744</v>
+        <v>41753</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1740,137 +1792,123 @@
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>41744</v>
+        <v>41762</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="4">
-        <v>41744</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4">
-        <v>41744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4">
-        <v>41745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4">
-        <v>41745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="4">
-        <v>41746</v>
+        <v>41738</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30" s="4">
-        <v>41746</v>
+        <v>41753</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1878,412 +1916,375 @@
         <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>41746</v>
+        <v>41762</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="4">
-        <v>41747</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>1</v>
       </c>
-      <c r="B34" s="4">
-        <v>41747</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>41747</v>
+        <v>41764</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>1</v>
       </c>
-      <c r="B36" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>1</v>
       </c>
-      <c r="B37" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>1</v>
       </c>
       <c r="B38" s="4">
-        <v>41750</v>
+        <v>41739</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>1</v>
       </c>
       <c r="B39" s="4">
-        <v>41750</v>
+        <v>41739</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>41750</v>
+        <v>41739</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>41750</v>
+        <v>41739</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>1</v>
       </c>
       <c r="B42" s="4">
-        <v>41750</v>
+        <v>41758</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>1</v>
       </c>
-      <c r="B45" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>1</v>
       </c>
-      <c r="B46" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>1</v>
       </c>
-      <c r="B47" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>1</v>
       </c>
-      <c r="B48" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4">
-        <v>41751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4">
-        <v>41751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>1</v>
       </c>
       <c r="B51" s="4">
-        <v>41751</v>
+        <v>41746</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2291,20 +2292,18 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>41751</v>
+        <v>41750</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
@@ -2314,91 +2313,87 @@
         <v>41751</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>1</v>
       </c>
       <c r="B54" s="4">
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>1</v>
       </c>
-      <c r="B55" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>1</v>
       </c>
       <c r="B56" s="4">
-        <v>41752</v>
+        <v>41758</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>1</v>
       </c>
       <c r="B57" s="4">
-        <v>41752</v>
+        <v>41758</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2407,19 +2402,19 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>41753</v>
+        <v>41764</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2427,19 +2422,19 @@
         <v>1</v>
       </c>
       <c r="B59" s="4">
-        <v>41753</v>
+        <v>41744</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2447,19 +2442,19 @@
         <v>1</v>
       </c>
       <c r="B60" s="4">
-        <v>41753</v>
+        <v>41761</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2467,19 +2462,19 @@
         <v>1</v>
       </c>
       <c r="B61" s="4">
-        <v>41753</v>
+        <v>41758</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2487,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="4">
-        <v>41753</v>
+        <v>41737</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2505,19 +2500,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="4">
-        <v>41755</v>
+        <v>41744</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2525,19 +2520,19 @@
         <v>1</v>
       </c>
       <c r="B64" s="4">
-        <v>41755</v>
+        <v>41744</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2545,19 +2540,19 @@
         <v>1</v>
       </c>
       <c r="B65" s="4">
-        <v>41755</v>
+        <v>41746</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2565,19 +2560,19 @@
         <v>1</v>
       </c>
       <c r="B66" s="4">
-        <v>41755</v>
+        <v>41751</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2585,19 +2580,19 @@
         <v>1</v>
       </c>
       <c r="B67" s="4">
-        <v>41758</v>
+        <v>41751</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2605,36 +2600,34 @@
         <v>1</v>
       </c>
       <c r="B68" s="4">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>1</v>
       </c>
-      <c r="B69" s="4">
-        <v>41758</v>
-      </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -2642,143 +2635,121 @@
       <c r="A70" s="2">
         <v>1</v>
       </c>
-      <c r="B70" s="4">
-        <v>41758</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>1</v>
       </c>
-      <c r="B71" s="4">
-        <v>41758</v>
-      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" s="4">
-        <v>41761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>1</v>
-      </c>
-      <c r="B73" s="4">
-        <v>41761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>1</v>
       </c>
       <c r="B74" s="4">
-        <v>41761</v>
+        <v>41738</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>250</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>1</v>
       </c>
       <c r="B75" s="4">
-        <v>41761</v>
+        <v>41738</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>246</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>1</v>
       </c>
       <c r="B76" s="4">
-        <v>41761</v>
+        <v>41738</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>249</v>
+        <v>148</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2786,39 +2757,37 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>41761</v>
+        <v>41745</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>1</v>
       </c>
       <c r="B78" s="4">
-        <v>41761</v>
+        <v>41746</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2826,19 +2795,19 @@
         <v>1</v>
       </c>
       <c r="B79" s="4">
-        <v>41762</v>
+        <v>41746</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2846,303 +2815,292 @@
         <v>1</v>
       </c>
       <c r="B80" s="4">
-        <v>41762</v>
+        <v>41747</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>1</v>
       </c>
       <c r="B81" s="4">
-        <v>41762</v>
+        <v>41751</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>1</v>
       </c>
       <c r="B82" s="4">
-        <v>41762</v>
+        <v>41751</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>1</v>
       </c>
-      <c r="B83" s="4">
-        <v>41762</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>1</v>
       </c>
-      <c r="B84" s="4">
-        <v>41762</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>1</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>1</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="3" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>1</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="3" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>1</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="4">
+        <v>41764</v>
+      </c>
       <c r="C88" s="3" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>1</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="4">
+        <v>41747</v>
+      </c>
       <c r="C89" s="3" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>1</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="4">
+        <v>41761</v>
+      </c>
       <c r="C90" s="3" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>1</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>1</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>1</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="3" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3150,67 +3108,71 @@
       <c r="A97" s="2">
         <v>1</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="4">
+        <v>41745</v>
+      </c>
       <c r="C97" s="3" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>1</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="4">
+        <v>41738</v>
+      </c>
       <c r="C99" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>1</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="4">
+        <v>41739</v>
+      </c>
       <c r="C100" s="3" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3218,15 +3180,17 @@
       <c r="A101" s="2">
         <v>1</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="4">
+        <v>41739</v>
+      </c>
       <c r="C101" s="3" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3234,15 +3198,17 @@
       <c r="A102" s="2">
         <v>1</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="4">
+        <v>41739</v>
+      </c>
       <c r="C102" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3250,63 +3216,77 @@
       <c r="A103" s="2">
         <v>1</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="4">
+        <v>41750</v>
+      </c>
       <c r="C103" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>1</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="4">
+        <v>41751</v>
+      </c>
       <c r="C104" s="3" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>1</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="4">
+        <v>41751</v>
+      </c>
       <c r="C105" s="3" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>1</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="4">
+        <v>41752</v>
+      </c>
       <c r="C106" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3314,446 +3294,523 @@
       <c r="A107" s="2">
         <v>1</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="4">
+        <v>41753</v>
+      </c>
       <c r="C107" s="3" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>1</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="4">
+        <v>41764</v>
+      </c>
       <c r="C108" s="3" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>1</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="4">
+        <v>41762</v>
+      </c>
       <c r="C114" s="3" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>1</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="4">
+        <v>41739</v>
+      </c>
       <c r="C115" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>1</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="4">
+        <v>41751</v>
+      </c>
       <c r="C116" s="3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>1</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="4">
+        <v>41762</v>
+      </c>
       <c r="C117" s="3" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>1</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>0</v>
-      </c>
-      <c r="B120" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B120" s="4">
+        <v>41755</v>
+      </c>
       <c r="C120" s="3" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>0</v>
-      </c>
-      <c r="B122" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B122" s="4">
+        <v>41744</v>
+      </c>
       <c r="C122" s="3" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>0</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B123" s="4">
+        <v>41750</v>
+      </c>
       <c r="C123" s="3" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>0</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B124" s="4">
+        <v>41750</v>
+      </c>
       <c r="C124" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F124" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>0</v>
-      </c>
-      <c r="B125" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B125" s="4">
+        <v>41761</v>
+      </c>
       <c r="C125" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>0</v>
-      </c>
-      <c r="B126" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B126" s="4">
+        <v>41761</v>
+      </c>
       <c r="C126" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F126" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>0</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B127" s="4">
+        <v>41761</v>
+      </c>
       <c r="C127" s="3" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>0</v>
-      </c>
-      <c r="B128" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B128" s="4">
+        <v>41762</v>
+      </c>
       <c r="C128" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>0</v>
-      </c>
-      <c r="B129" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B129" s="4">
+        <v>41755</v>
+      </c>
       <c r="C129" s="3" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>0</v>
-      </c>
-      <c r="B130" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B130" s="4">
+        <v>41762</v>
+      </c>
       <c r="C130" s="3" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>0</v>
-      </c>
-      <c r="B131" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B131" s="4">
+        <v>41737</v>
+      </c>
       <c r="C131" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>0</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B132" s="4">
+        <v>41750</v>
+      </c>
       <c r="C132" s="3" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <v>0</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B133" s="4">
+        <v>41750</v>
+      </c>
       <c r="C133" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
-        <v>0</v>
-      </c>
-      <c r="B134" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B134" s="4">
+        <v>41737</v>
+      </c>
       <c r="C134" s="3" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>121</v>
@@ -3762,46 +3819,50 @@
     </row>
     <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
-        <v>0</v>
-      </c>
-      <c r="B135" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B135" s="4">
+        <v>41738</v>
+      </c>
       <c r="C135" s="3" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
-        <v>0</v>
-      </c>
-      <c r="B136" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B136" s="4">
+        <v>41753</v>
+      </c>
       <c r="C136" s="3" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>121</v>
@@ -3810,14 +3871,14 @@
     </row>
     <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>121</v>
@@ -3826,234 +3887,255 @@
     </row>
     <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>0</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B139" s="4">
+        <v>41758</v>
+      </c>
       <c r="C139" s="3" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F139" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>0</v>
-      </c>
-      <c r="B141" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B141" s="4">
+        <v>41738</v>
+      </c>
       <c r="C141" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>0</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B143" s="4">
+        <v>41755</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F143" s="2"/>
+      <c r="F143" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
-        <v>0</v>
-      </c>
-      <c r="B144" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B144" s="4">
+        <v>41755</v>
+      </c>
       <c r="C144" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>0</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B145" s="4">
+        <v>41738</v>
+      </c>
       <c r="C145" s="3" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>0</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F147" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
+        <v>1</v>
+      </c>
+      <c r="B148" s="4">
+        <v>41752</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
         <v>0</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A149" s="2">
-        <v>1</v>
-      </c>
-      <c r="B149" s="4">
+      <c r="B149" s="2"/>
+      <c r="C149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>1</v>
+      </c>
+      <c r="B150" s="4">
         <v>41762</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A150" s="2">
-        <v>0</v>
-      </c>
-      <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <v>0</v>
-      </c>
-      <c r="B151" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B151" s="4">
+        <v>41747</v>
+      </c>
       <c r="C151" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>211</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A2:G168">
-    <sortCondition descending="1" ref="A1"/>
+    <sortCondition ref="D88"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F151 G46 G117">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\LeetCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8355"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="278">
   <si>
     <t>Two Sum</t>
   </si>
@@ -907,6 +902,46 @@
   </si>
   <si>
     <t>类似树的层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意…和..的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词法分析，情况多，代码丑陋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Merge Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义compare函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想清楚链表指针的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向链表加哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归，注意剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,72 +1036,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF7C80"/>
@@ -1091,7 +1060,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1338,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1348,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A105" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,9 +1648,11 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>41767</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1689,15 +1660,19 @@
         <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>41767</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1707,13 +1682,17 @@
       <c r="E19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>41767</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
@@ -1724,7 +1703,7 @@
         <v>121</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1843,9 +1822,11 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>41767</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
@@ -1855,7 +1836,9 @@
       <c r="E27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -2249,13 +2232,17 @@
       <c r="E49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B50" s="4">
+        <v>41767</v>
+      </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2252,9 @@
       <c r="E50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
@@ -3348,9 +3337,11 @@
     </row>
     <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>0</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B110" s="4">
+        <v>41767</v>
+      </c>
       <c r="C110" s="3" t="s">
         <v>84</v>
       </c>
@@ -3360,7 +3351,9 @@
       <c r="E110" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
@@ -3371,7 +3364,7 @@
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>263</v>
@@ -4031,9 +4024,11 @@
     </row>
     <row r="147" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>0</v>
-      </c>
-      <c r="B147" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B147" s="4">
+        <v>41767</v>
+      </c>
       <c r="C147" s="3" t="s">
         <v>169</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>170</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>171</v>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\LeetCode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8355"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="282">
   <si>
     <t>Two Sum</t>
   </si>
@@ -942,6 +947,22 @@
   </si>
   <si>
     <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret[i][j]=s1前i和s2前j能否组成s3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS，四个方向 注意标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,6 +1057,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF7C80"/>
@@ -1060,7 +1147,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1307,7 +1394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1317,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A105" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1354,49 +1441,60 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>41764</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>41738</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>41750</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1405,19 +1503,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>41764</v>
+        <v>41750</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1425,20 +1523,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>41738</v>
+        <v>41750</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>240</v>
+        <v>121</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1446,64 +1543,71 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>41761</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>121</v>
@@ -1512,18 +1616,16 @@
         <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>121</v>
@@ -1532,18 +1634,16 @@
         <v>121</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>121</v>
@@ -1551,19 +1651,15 @@
       <c r="E12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
-        <v>41761</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>121</v>
@@ -1571,38 +1667,37 @@
       <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4">
+        <v>41767</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4">
+        <v>41767</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>121</v>
@@ -1611,16 +1706,18 @@
         <v>121</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4">
+        <v>41767</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -1628,42 +1725,48 @@
       <c r="E16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4">
+        <v>41739</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="4">
-        <v>41767</v>
+        <v>41751</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1671,19 +1774,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="4">
-        <v>41767</v>
+        <v>41753</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1691,30 +1794,28 @@
         <v>1</v>
       </c>
       <c r="B20" s="4">
-        <v>41767</v>
+        <v>41762</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>121</v>
@@ -1723,7 +1824,7 @@
         <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1731,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>41751</v>
+        <v>41767</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>121</v>
@@ -1743,7 +1844,7 @@
         <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1751,72 +1852,72 @@
         <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>41753</v>
+        <v>41738</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>41762</v>
+        <v>41753</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4">
+        <v>41762</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1824,35 +1925,31 @@
       <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="4">
-        <v>41767</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1861,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="4">
-        <v>41738</v>
+        <v>41764</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>121</v>
@@ -1872,132 +1969,144 @@
       <c r="E29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="4">
-        <v>41753</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="4">
-        <v>41762</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4">
+        <v>41739</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="4">
+        <v>41739</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>1</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="4">
+        <v>41739</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>41764</v>
+        <v>41739</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>1</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4">
+        <v>41758</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2006,27 +2115,25 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>1</v>
       </c>
-      <c r="B38" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>121</v>
@@ -2034,19 +2141,15 @@
       <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>1</v>
       </c>
-      <c r="B39" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>121</v>
@@ -2054,19 +2157,15 @@
       <c r="E39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>1</v>
       </c>
-      <c r="B40" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>121</v>
@@ -2074,19 +2173,15 @@
       <c r="E40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>1</v>
       </c>
-      <c r="B41" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>121</v>
@@ -2102,11 +2197,9 @@
       <c r="A42" s="2">
         <v>1</v>
       </c>
-      <c r="B42" s="4">
-        <v>41758</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>121</v>
@@ -2114,17 +2207,17 @@
       <c r="E42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="4">
+        <v>41767</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>121</v>
@@ -2133,38 +2226,44 @@
         <v>135</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="4">
+        <v>41746</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>1</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="4">
+        <v>41750</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -2172,15 +2271,17 @@
       <c r="A46" s="2">
         <v>1</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="4">
+        <v>41751</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2188,18 +2289,20 @@
       <c r="A47" s="2">
         <v>1</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="4">
+        <v>41753</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2208,32 +2311,34 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B49" s="4">
+        <v>41758</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2241,39 +2346,37 @@
         <v>1</v>
       </c>
       <c r="B50" s="4">
-        <v>41767</v>
+        <v>41758</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>1</v>
       </c>
       <c r="B51" s="4">
-        <v>41746</v>
+        <v>41764</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2281,70 +2384,76 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>41750</v>
+        <v>41744</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>1</v>
       </c>
       <c r="B53" s="4">
-        <v>41751</v>
+        <v>41761</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>1</v>
       </c>
       <c r="B54" s="4">
-        <v>41753</v>
+        <v>41758</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>1</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="4">
+        <v>41737</v>
+      </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2353,19 +2462,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="4">
-        <v>41758</v>
+        <v>41744</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2373,37 +2482,39 @@
         <v>1</v>
       </c>
       <c r="B57" s="4">
-        <v>41758</v>
+        <v>41744</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>41764</v>
+        <v>41746</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2411,19 +2522,19 @@
         <v>1</v>
       </c>
       <c r="B59" s="4">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2431,19 +2542,19 @@
         <v>1</v>
       </c>
       <c r="B60" s="4">
-        <v>41761</v>
+        <v>41751</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2451,30 +2562,28 @@
         <v>1</v>
       </c>
       <c r="B61" s="4">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>1</v>
       </c>
-      <c r="B62" s="4">
-        <v>41737</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>184</v>
@@ -2488,60 +2597,52 @@
       <c r="A63" s="2">
         <v>1</v>
       </c>
-      <c r="B63" s="4">
-        <v>41744</v>
-      </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>1</v>
       </c>
-      <c r="B64" s="4">
-        <v>41744</v>
-      </c>
+      <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>1</v>
       </c>
       <c r="B65" s="4">
-        <v>41746</v>
+        <v>41768</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2549,74 +2650,73 @@
         <v>1</v>
       </c>
       <c r="B66" s="4">
-        <v>41751</v>
+        <v>41738</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>1</v>
       </c>
       <c r="B67" s="4">
-        <v>41751</v>
+        <v>41738</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>1</v>
       </c>
       <c r="B68" s="4">
-        <v>41761</v>
+        <v>41738</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>249</v>
+        <v>148</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>1</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="4">
+        <v>41745</v>
+      </c>
       <c r="C69" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -2624,63 +2724,77 @@
       <c r="A70" s="2">
         <v>1</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="4">
+        <v>41746</v>
+      </c>
       <c r="C70" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>1</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="4">
+        <v>41746</v>
+      </c>
       <c r="C71" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B72" s="4">
+        <v>41747</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>41751</v>
+      </c>
       <c r="C73" s="3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F73" s="2"/>
     </row>
@@ -2689,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="4">
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>184</v>
@@ -2700,17 +2814,17 @@
       <c r="E74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>1</v>
       </c>
-      <c r="B75" s="4">
-        <v>41738</v>
-      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>184</v>
@@ -2724,11 +2838,9 @@
       <c r="A76" s="2">
         <v>1</v>
       </c>
-      <c r="B76" s="4">
-        <v>41738</v>
-      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>184</v>
@@ -2737,19 +2849,14 @@
         <v>148</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>1</v>
       </c>
-      <c r="B77" s="4">
-        <v>41745</v>
-      </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>184</v>
@@ -2763,11 +2870,9 @@
       <c r="A78" s="2">
         <v>1</v>
       </c>
-      <c r="B78" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>184</v>
@@ -2775,19 +2880,15 @@
       <c r="E78" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>1</v>
       </c>
-      <c r="B79" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>184</v>
@@ -2795,28 +2896,26 @@
       <c r="E79" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>1</v>
       </c>
       <c r="B80" s="4">
-        <v>41747</v>
+        <v>41764</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2824,37 +2923,39 @@
         <v>1</v>
       </c>
       <c r="B81" s="4">
-        <v>41751</v>
+        <v>41747</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>1</v>
       </c>
       <c r="B82" s="4">
-        <v>41751</v>
+        <v>41761</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2863,13 +2964,13 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -2879,13 +2980,13 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -2895,13 +2996,13 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -2909,107 +3010,111 @@
       <c r="A86" s="2">
         <v>1</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="4">
+        <v>41745</v>
+      </c>
       <c r="C86" s="3" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>1</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="4">
+        <v>41768</v>
+      </c>
       <c r="C87" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>1</v>
       </c>
       <c r="B88" s="4">
-        <v>41764</v>
+        <v>41738</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>41747</v>
+        <v>41739</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>1</v>
       </c>
       <c r="B90" s="4">
-        <v>41761</v>
+        <v>41739</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>1</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="4">
+        <v>41739</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3017,137 +3122,164 @@
       <c r="A92" s="2">
         <v>1</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="4">
+        <v>41750</v>
+      </c>
       <c r="C92" s="3" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F92" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>1</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="4">
+        <v>41751</v>
+      </c>
       <c r="C93" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F93" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B94" s="4">
+        <v>41751</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F94" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B95" s="4">
+        <v>41752</v>
+      </c>
       <c r="C95" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>0</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B96" s="4">
+        <v>41753</v>
+      </c>
       <c r="C96" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>1</v>
       </c>
       <c r="B97" s="4">
-        <v>41745</v>
+        <v>41764</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>0</v>
-      </c>
-      <c r="B98" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B98" s="4">
+        <v>41767</v>
+      </c>
       <c r="C98" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>1</v>
       </c>
       <c r="B99" s="4">
-        <v>41738</v>
+        <v>41762</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>1</v>
       </c>
@@ -3155,255 +3287,269 @@
         <v>41739</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>1</v>
       </c>
       <c r="B101" s="4">
-        <v>41739</v>
+        <v>41751</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>41739</v>
+        <v>41762</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>1</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>1</v>
+      </c>
+      <c r="B104" s="4">
+        <v>41755</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4">
+        <v>41744</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>1</v>
+      </c>
+      <c r="B107" s="4">
         <v>41750</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
-        <v>1</v>
-      </c>
-      <c r="B104" s="4">
-        <v>41751</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A105" s="2">
-        <v>1</v>
-      </c>
-      <c r="B105" s="4">
-        <v>41751</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4">
-        <v>41752</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
-        <v>1</v>
-      </c>
-      <c r="B107" s="4">
-        <v>41753</v>
-      </c>
       <c r="C107" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>41764</v>
+        <v>41750</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>0</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B109" s="4">
+        <v>41761</v>
+      </c>
       <c r="C109" s="3" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>1</v>
       </c>
       <c r="B110" s="4">
-        <v>41767</v>
+        <v>41761</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>0</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B111" s="4">
+        <v>41761</v>
+      </c>
       <c r="C111" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>0</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B112" s="4">
+        <v>41762</v>
+      </c>
       <c r="C112" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>0</v>
-      </c>
-      <c r="B113" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B113" s="4">
+        <v>41755</v>
+      </c>
       <c r="C113" s="3" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -3411,719 +3557,672 @@
         <v>41762</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>1</v>
       </c>
       <c r="B115" s="4">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>1</v>
       </c>
       <c r="B116" s="4">
-        <v>41751</v>
+        <v>41750</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>1</v>
       </c>
       <c r="B117" s="4">
-        <v>41762</v>
+        <v>41750</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>1</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="4">
+        <v>41737</v>
+      </c>
       <c r="C118" s="3" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>0</v>
-      </c>
-      <c r="B119" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B119" s="4">
+        <v>41738</v>
+      </c>
       <c r="C119" s="3" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>41755</v>
+        <v>41753</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>1</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>1</v>
+      </c>
+      <c r="B123" s="4">
+        <v>41758</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>1</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>1</v>
+      </c>
+      <c r="B125" s="4">
+        <v>41738</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
-        <v>1</v>
-      </c>
-      <c r="B122" s="4">
-        <v>41744</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A123" s="2">
-        <v>1</v>
-      </c>
-      <c r="B123" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A124" s="2">
-        <v>1</v>
-      </c>
-      <c r="B124" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="2">
-        <v>1</v>
-      </c>
-      <c r="B125" s="4">
-        <v>41761</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>1</v>
       </c>
-      <c r="B126" s="4">
-        <v>41761</v>
-      </c>
+      <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>1</v>
       </c>
       <c r="B127" s="4">
-        <v>41761</v>
+        <v>41755</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>1</v>
       </c>
       <c r="B128" s="4">
+        <v>41755</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4">
+        <v>41738</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>1</v>
+      </c>
+      <c r="B131" s="4">
+        <v>41767</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>1</v>
+      </c>
+      <c r="B132" s="4">
+        <v>41752</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>1</v>
+      </c>
+      <c r="B133" s="4">
         <v>41762</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A129" s="2">
-        <v>1</v>
-      </c>
-      <c r="B129" s="4">
-        <v>41755</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A130" s="2">
-        <v>1</v>
-      </c>
-      <c r="B130" s="4">
-        <v>41762</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="C133" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>1</v>
+      </c>
+      <c r="B134" s="4">
+        <v>41747</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4">
+        <v>41768</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A131" s="2">
-        <v>1</v>
-      </c>
-      <c r="B131" s="4">
-        <v>41737</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A132" s="2">
-        <v>1</v>
-      </c>
-      <c r="B132" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A133" s="2">
-        <v>1</v>
-      </c>
-      <c r="B133" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A134" s="2">
-        <v>1</v>
-      </c>
-      <c r="B134" s="4">
-        <v>41737</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A135" s="2">
-        <v>1</v>
-      </c>
-      <c r="B135" s="4">
-        <v>41738</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
-        <v>1</v>
-      </c>
-      <c r="B136" s="4">
-        <v>41753</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>1</v>
-      </c>
-      <c r="B139" s="4">
-        <v>41758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>1</v>
-      </c>
-      <c r="B141" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>1</v>
-      </c>
-      <c r="B143" s="4">
-        <v>41755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
-        <v>1</v>
-      </c>
-      <c r="B144" s="4">
-        <v>41755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>1</v>
-      </c>
-      <c r="B145" s="4">
-        <v>41738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>1</v>
-      </c>
-      <c r="B147" s="4">
-        <v>41767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
-        <v>1</v>
-      </c>
-      <c r="B148" s="4">
-        <v>41752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>0</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>0</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A150" s="2">
-        <v>1</v>
-      </c>
-      <c r="B150" s="4">
-        <v>41762</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A151" s="2">
-        <v>1</v>
-      </c>
-      <c r="B151" s="4">
-        <v>41747</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A2:G168">
-    <sortCondition ref="D88"/>
+    <sortCondition descending="1" ref="A130"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F151 G46 G117">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\LeetCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8355"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="284">
   <si>
     <t>Two Sum</t>
   </si>
@@ -963,6 +958,14 @@
   </si>
   <si>
     <t>体力活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递推公式很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针，合并排序，递归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,72 +1060,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF7C80"/>
@@ -1147,7 +1084,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1394,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1405,7 +1342,7 @@
   <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+      <selection activeCell="A133" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3958,35 +3895,43 @@
     </row>
     <row r="136" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
-        <v>0</v>
-      </c>
-      <c r="B136" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B136" s="4">
+        <v>41768</v>
+      </c>
       <c r="C136" s="3" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F136" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="137" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>0</v>
-      </c>
-      <c r="B137" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B137" s="4">
+        <v>41768</v>
+      </c>
       <c r="C137" s="3" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F137" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="138" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
@@ -3994,13 +3939,13 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -4010,13 +3955,13 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -4026,13 +3971,13 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -4042,17 +3987,15 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
@@ -4060,13 +4003,13 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -4076,15 +4019,17 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F143" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="144" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
@@ -4092,10 +4037,10 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>121</v>
@@ -4108,7 +4053,7 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>157</v>
@@ -4124,13 +4069,13 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4140,10 +4085,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>263</v>
@@ -4156,10 +4101,10 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>263</v>
@@ -4172,7 +4117,7 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>157</v>
@@ -4188,17 +4133,15 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
@@ -4222,7 +4165,7 @@
     <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A2:G168">
-    <sortCondition descending="1" ref="A130"/>
+    <sortCondition descending="1" ref="A133"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F151 G46 G117">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="295">
   <si>
     <t>Two Sum</t>
   </si>
@@ -966,6 +966,50 @@
   </si>
   <si>
     <t>快慢指针，合并排序，递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左向右，再从右向左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i]=min{f(1+j)+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i]=f[j] &amp;&amp; s[j+1,i]∈dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意对*的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力过题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i][j]=(s[i] eq s[j])&amp;&amp;f[i+1][j-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有O(n)解法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break+DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用哈希表解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1086,35 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1331,7 +1403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1342,7 +1414,7 @@
   <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A133" sqref="A1:A1048576"/>
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,19 +1453,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>41764</v>
+        <v>41750</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1401,20 +1473,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>240</v>
+        <v>121</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1422,48 +1493,51 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>41750</v>
+        <v>41761</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>246</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>121</v>
@@ -1472,18 +1546,16 @@
         <v>121</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>121</v>
@@ -1492,18 +1564,16 @@
         <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>121</v>
@@ -1511,19 +1581,15 @@
       <c r="E8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>41761</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>121</v>
@@ -1531,38 +1597,37 @@
       <c r="E9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4">
+        <v>41767</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="4">
+        <v>41767</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>121</v>
@@ -1571,16 +1636,18 @@
         <v>121</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4">
+        <v>41767</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>121</v>
@@ -1588,42 +1655,48 @@
       <c r="E12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4">
+        <v>41744</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <v>41767</v>
+        <v>41761</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1631,339 +1704,332 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>41767</v>
+        <v>41737</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="4">
-        <v>41767</v>
+        <v>41744</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="4">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="4">
+        <v>41746</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
         <v>41751</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <v>41753</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="4">
-        <v>41762</v>
+        <v>41751</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4">
+        <v>41761</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="4">
-        <v>41767</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="4">
-        <v>41738</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="4">
-        <v>41753</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>41762</v>
+        <v>41768</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="4">
+        <v>41761</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>1</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="4">
-        <v>41764</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="4">
+        <v>41762</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="4">
-        <v>41739</v>
+        <v>41755</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1971,19 +2037,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="4">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -1991,19 +2057,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>41739</v>
+        <v>41750</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2011,19 +2077,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>41739</v>
+        <v>41750</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2031,84 +2097,96 @@
         <v>1</v>
       </c>
       <c r="B36" s="4">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4">
+        <v>41761</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>1</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="4">
+        <v>41761</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>1</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="4">
+        <v>41762</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>1</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="4">
+        <v>41737</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2116,33 +2194,35 @@
       <c r="A41" s="2">
         <v>1</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="4">
+        <v>41737</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>1</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="4">
+        <v>41738</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -2150,57 +2230,47 @@
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="4">
-        <v>41767</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>1</v>
       </c>
-      <c r="B45" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -2209,38 +2279,38 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>41751</v>
+        <v>41755</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>1</v>
       </c>
       <c r="B47" s="4">
-        <v>41753</v>
+        <v>41738</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>232</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
@@ -2248,349 +2318,357 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>1</v>
       </c>
       <c r="B49" s="4">
-        <v>41758</v>
+        <v>41768</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>1</v>
       </c>
       <c r="B50" s="4">
-        <v>41758</v>
+        <v>41769</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>1</v>
       </c>
       <c r="B51" s="4">
-        <v>41764</v>
+        <v>41739</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>1</v>
       </c>
       <c r="B53" s="4">
-        <v>41761</v>
+        <v>41753</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>1</v>
       </c>
       <c r="B54" s="4">
-        <v>41758</v>
+        <v>41762</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>1</v>
       </c>
-      <c r="B55" s="4">
-        <v>41737</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>1</v>
       </c>
       <c r="B56" s="4">
-        <v>41744</v>
+        <v>41767</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>1</v>
       </c>
       <c r="B57" s="4">
-        <v>41744</v>
+        <v>41738</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>1</v>
       </c>
       <c r="B59" s="4">
-        <v>41751</v>
+        <v>41750</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>1</v>
       </c>
       <c r="B60" s="4">
-        <v>41751</v>
+        <v>41768</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>1</v>
       </c>
       <c r="B61" s="4">
-        <v>41761</v>
+        <v>41738</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>1</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="4">
+        <v>41738</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>1</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="4">
+        <v>41738</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="G63" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>1</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="4">
+        <v>41745</v>
+      </c>
       <c r="C64" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>1</v>
       </c>
       <c r="B65" s="4">
-        <v>41768</v>
+        <v>41746</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>1</v>
       </c>
       <c r="B66" s="4">
-        <v>41738</v>
+        <v>41746</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>184</v>
@@ -2598,35 +2676,39 @@
       <c r="E66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F66" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>1</v>
       </c>
       <c r="B67" s="4">
-        <v>41738</v>
+        <v>41747</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>1</v>
       </c>
       <c r="B68" s="4">
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>184</v>
@@ -2635,19 +2717,16 @@
         <v>148</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>1</v>
       </c>
       <c r="B69" s="4">
-        <v>41745</v>
+        <v>41751</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>184</v>
@@ -2655,17 +2734,17 @@
       <c r="E69" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F69" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>1</v>
       </c>
-      <c r="B70" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>184</v>
@@ -2673,19 +2752,15 @@
       <c r="E70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>1</v>
       </c>
-      <c r="B71" s="4">
-        <v>41746</v>
-      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>184</v>
@@ -2693,39 +2768,31 @@
       <c r="E71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>1</v>
       </c>
-      <c r="B72" s="4">
-        <v>41747</v>
-      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>1</v>
       </c>
-      <c r="B73" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>184</v>
@@ -2735,15 +2802,13 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>1</v>
       </c>
-      <c r="B74" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>184</v>
@@ -2751,17 +2816,17 @@
       <c r="E74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>1</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="4">
+        <v>41764</v>
+      </c>
       <c r="C75" s="3" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>184</v>
@@ -2769,110 +2834,118 @@
       <c r="E75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F75" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>1</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="4">
+        <v>41745</v>
+      </c>
       <c r="C76" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F76" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>1</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="4">
+        <v>41768</v>
+      </c>
       <c r="C77" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F77" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>1</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>1</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="4">
+        <v>41738</v>
+      </c>
       <c r="C79" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>1</v>
       </c>
-      <c r="B80" s="4">
-        <v>41764</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>1</v>
       </c>
       <c r="B81" s="4">
-        <v>41747</v>
+        <v>41762</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -2880,52 +2953,58 @@
         <v>1</v>
       </c>
       <c r="B82" s="4">
-        <v>41761</v>
+        <v>41738</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>1</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="4">
+        <v>41753</v>
+      </c>
       <c r="C83" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F83" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>1</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="4">
+        <v>41762</v>
+      </c>
       <c r="C84" s="3" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
@@ -2933,13 +3012,13 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -2947,132 +3026,128 @@
       <c r="A86" s="2">
         <v>1</v>
       </c>
-      <c r="B86" s="4">
-        <v>41745</v>
-      </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="3" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>1</v>
       </c>
-      <c r="B87" s="4">
-        <v>41768</v>
-      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="3" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>1</v>
       </c>
       <c r="B88" s="4">
-        <v>41738</v>
+        <v>41764</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>41739</v>
+        <v>41762</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>1</v>
       </c>
       <c r="B90" s="4">
-        <v>41739</v>
+        <v>41767</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>1</v>
       </c>
-      <c r="B91" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>1</v>
       </c>
-      <c r="B92" s="4">
-        <v>41750</v>
-      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3080,19 +3155,19 @@
         <v>1</v>
       </c>
       <c r="B93" s="4">
-        <v>41751</v>
+        <v>41739</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3100,19 +3175,19 @@
         <v>1</v>
       </c>
       <c r="B94" s="4">
-        <v>41751</v>
+        <v>41739</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3120,407 +3195,386 @@
         <v>1</v>
       </c>
       <c r="B95" s="4">
-        <v>41752</v>
+        <v>41739</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>1</v>
       </c>
       <c r="B96" s="4">
-        <v>41753</v>
+        <v>41739</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>1</v>
       </c>
       <c r="B97" s="4">
-        <v>41764</v>
+        <v>41758</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>1</v>
       </c>
-      <c r="B98" s="4">
-        <v>41767</v>
-      </c>
+      <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>1</v>
       </c>
-      <c r="B99" s="4">
-        <v>41762</v>
-      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>1</v>
       </c>
-      <c r="B100" s="4">
-        <v>41739</v>
-      </c>
+      <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>1</v>
       </c>
-      <c r="B101" s="4">
-        <v>41751</v>
-      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>1</v>
       </c>
-      <c r="B102" s="4">
-        <v>41762</v>
-      </c>
+      <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>1</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="3" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>1</v>
+      </c>
+      <c r="B104" s="4">
+        <v>41767</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>1</v>
+      </c>
+      <c r="B105" s="4">
+        <v>41758</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4">
+        <v>41747</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>1</v>
+      </c>
+      <c r="B107" s="4">
+        <v>41758</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>1</v>
+      </c>
+      <c r="B108" s="4">
+        <v>41768</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
-        <v>1</v>
-      </c>
-      <c r="B104" s="4">
-        <v>41755</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A105" s="2">
-        <v>1</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4">
-        <v>41744</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
-        <v>1</v>
-      </c>
-      <c r="B107" s="4">
+      <c r="E108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4">
+        <v>41746</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>1</v>
+      </c>
+      <c r="B110" s="4">
         <v>41750</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="B108" s="4">
-        <v>41750</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="B109" s="4">
-        <v>41761</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
-        <v>1</v>
-      </c>
-      <c r="B110" s="4">
-        <v>41761</v>
-      </c>
       <c r="C110" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>1</v>
       </c>
       <c r="B111" s="4">
-        <v>41761</v>
+        <v>41751</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>1</v>
       </c>
       <c r="B112" s="4">
-        <v>41762</v>
+        <v>41753</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>1</v>
       </c>
-      <c r="B113" s="4">
-        <v>41755</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>41762</v>
+        <v>41738</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>1</v>
       </c>
       <c r="B115" s="4">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3529,108 +3583,112 @@
         <v>1</v>
       </c>
       <c r="B116" s="4">
-        <v>41750</v>
+        <v>41739</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>1</v>
       </c>
       <c r="B117" s="4">
-        <v>41750</v>
+        <v>41739</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>1</v>
       </c>
       <c r="B118" s="4">
-        <v>41737</v>
+        <v>41750</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F118" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>1</v>
       </c>
       <c r="B119" s="4">
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F119" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F120" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>1</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="4">
+        <v>41752</v>
+      </c>
       <c r="C121" s="3" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3638,106 +3696,118 @@
       <c r="A122" s="2">
         <v>1</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="4">
+        <v>41753</v>
+      </c>
       <c r="C122" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>1</v>
       </c>
       <c r="B123" s="4">
-        <v>41758</v>
+        <v>41739</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>1</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="4">
+        <v>41751</v>
+      </c>
       <c r="C124" s="3" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F124" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>1</v>
       </c>
       <c r="B125" s="4">
-        <v>41738</v>
+        <v>41762</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>1</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="4">
+        <v>41750</v>
+      </c>
       <c r="C126" s="3" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>1</v>
       </c>
       <c r="B127" s="4">
-        <v>41755</v>
+        <v>41750</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3745,73 +3815,77 @@
         <v>1</v>
       </c>
       <c r="B128" s="4">
-        <v>41755</v>
+        <v>41753</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>238</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>1</v>
       </c>
       <c r="B129" s="4">
-        <v>41738</v>
+        <v>41755</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>1</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="4">
+        <v>41764</v>
+      </c>
       <c r="C130" s="3" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>1</v>
       </c>
       <c r="B131" s="4">
-        <v>41767</v>
+        <v>41769</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -3819,58 +3893,57 @@
         <v>1</v>
       </c>
       <c r="B132" s="4">
-        <v>41752</v>
+        <v>41758</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="133" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>41762</v>
+        <v>41758</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>1</v>
       </c>
       <c r="B134" s="4">
-        <v>41747</v>
+        <v>41764</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E134" s="2" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -3878,19 +3951,19 @@
         <v>1</v>
       </c>
       <c r="B135" s="4">
-        <v>41768</v>
+        <v>41764</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -3898,19 +3971,19 @@
         <v>1</v>
       </c>
       <c r="B136" s="4">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -3918,150 +3991,183 @@
         <v>1</v>
       </c>
       <c r="B137" s="4">
-        <v>41768</v>
+        <v>41755</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>0</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B138" s="4">
+        <v>41752</v>
+      </c>
       <c r="C138" s="3" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>0</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B139" s="4">
+        <v>41747</v>
+      </c>
       <c r="C139" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F139" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="140" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>0</v>
-      </c>
-      <c r="B140" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B140" s="4">
+        <v>41769</v>
+      </c>
       <c r="C140" s="3" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F140" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>0</v>
-      </c>
-      <c r="B141" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B141" s="4">
+        <v>41769</v>
+      </c>
       <c r="C141" s="3" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>0</v>
-      </c>
-      <c r="B142" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B142" s="4">
+        <v>41769</v>
+      </c>
       <c r="C142" s="3" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="F142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="143" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>0</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B143" s="4">
+        <v>41769</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
-        <v>0</v>
-      </c>
-      <c r="B144" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B144" s="4">
+        <v>41769</v>
+      </c>
       <c r="C144" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F144" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>0</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B145" s="4">
+        <v>41769</v>
+      </c>
       <c r="C145" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F145" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
@@ -4069,13 +4175,13 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4085,13 +4191,13 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4101,13 +4207,13 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>276</v>
+        <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4117,15 +4223,17 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F149" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
@@ -4133,13 +4241,13 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -4149,30 +4257,32 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F151" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sortState ref="A2:G168">
-    <sortCondition descending="1" ref="A133"/>
+  <sortState ref="A1:G168">
+    <sortCondition descending="1" ref="A139"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F151 G46 G117">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:F151 G46 G117 G148 G151">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="296">
   <si>
     <t>Two Sum</t>
   </si>
@@ -901,115 +901,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注意…和..的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词法分析，情况多，代码丑陋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Merge Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义compare函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想清楚链表指针的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向链表加哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归，注意剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret[i][j]=s1前i和s2前j能否组成s3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS，四个方向 注意标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递推公式很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针，合并排序，递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左向右，再从右向左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i]=min{f(1+j)+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i]=f[j] &amp;&amp; s[j+1,i]∈dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意对*的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力过题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i][j]=(s[i] eq s[j])&amp;&amp;f[i+1][j-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有O(n)解法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用哈希表解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用哈希表做标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break+回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>类似树的层序遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意…和..的处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>词法分析，情况多，代码丑陋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用Merge Interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义compare函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想清楚链表指针的操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双向链表加哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归，注意剪枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ret[i][j]=s1前i和s2前j能否组成s3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS，四个方向 注意标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递推公式很重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快慢指针，合并排序，递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从左向右，再从右向左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f[i]=min{f(1+j)+1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f[i]=f[j] &amp;&amp; s[j+1,i]∈dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意对*的处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴力过题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f[i][j]=(s[i] eq s[j])&amp;&amp;f[i+1][j-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有O(n)解法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Break+DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用哈希表解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,35 +1090,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1413,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1613,10 +1589,10 @@
         <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1636,7 +1612,7 @@
         <v>121</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1656,7 +1632,7 @@
         <v>121</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -1899,10 +1875,10 @@
         <v>184</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2345,7 +2321,7 @@
         <v>121</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2365,7 +2341,7 @@
         <v>121</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2483,7 +2459,7 @@
         <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2562,7 +2538,7 @@
         <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -2875,7 +2851,7 @@
         <v>148</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3108,7 +3084,7 @@
         <v>170</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>171</v>
@@ -3367,7 +3343,7 @@
         <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3447,7 +3423,7 @@
         <v>135</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -3865,7 +3841,7 @@
         <v>266</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -3882,10 +3858,10 @@
         <v>184</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -3983,7 +3959,7 @@
         <v>263</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -4062,7 +4038,7 @@
         <v>263</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -4082,7 +4058,7 @@
         <v>263</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -4103,7 +4079,7 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -4123,10 +4099,10 @@
         <v>230</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -4143,10 +4119,10 @@
         <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -4160,46 +4136,54 @@
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>0</v>
-      </c>
-      <c r="B146" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B146" s="4">
+        <v>41770</v>
+      </c>
       <c r="C146" s="3" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F146" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>0</v>
-      </c>
-      <c r="B147" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B147" s="4">
+        <v>41770</v>
+      </c>
       <c r="C147" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F147" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
@@ -4207,13 +4191,13 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4223,17 +4207,15 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
@@ -4241,13 +4223,13 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -4257,16 +4239,16 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4279,10 +4261,10 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F151 G46 G117 G148 G151">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1=1</formula>
     </cfRule>
   </conditionalFormatting>
